--- a/01_MP_values/soccer/MP57_Transform.xlsx
+++ b/01_MP_values/soccer/MP57_Transform.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\02_projects\2018_Soccer_Mouthguard\data\baselines\MP0057 - Calibration Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\medctr\dfs\cib$\shared\02_projects\mouthpiece_data_collection\00_MATLAB_Code\01_MP_values\soccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A256E3-8BA7-4C1B-8E02-D0BE227B12B2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A579E14-F82F-4185-AB47-79478EE3F1F1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{09E26732-4F83-4858-B5A6-D5DAE8665BB3}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="23445" windowHeight="14595" xr2:uid="{09E26732-4F83-4858-B5A6-D5DAE8665BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,44 +417,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>61.37</v>
+        <v>40.73489498692954</v>
       </c>
       <c r="B2">
-        <v>0.99346871851448704</v>
+        <v>0.92990332116438268</v>
       </c>
       <c r="C2">
-        <v>-7.1405159965088894E-2</v>
+        <v>0.32236534800031658</v>
       </c>
       <c r="D2">
-        <v>8.9001171135794796E-2</v>
+        <v>-0.17708866619884475</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-9.3000000000000007</v>
+        <v>-4.4358889630384315</v>
       </c>
       <c r="B3">
-        <v>-0.114030020674266</v>
+        <v>0.3342830573024545</v>
       </c>
       <c r="C3">
-        <v>-0.59305706197308905</v>
+        <v>-0.5399207721196182</v>
       </c>
       <c r="D3">
-        <v>0.79704483915829605</v>
+        <v>0.77248973937152032</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>-69.61</v>
+        <v>-81.554208193969302</v>
       </c>
       <c r="B4">
-        <v>-4.1303411734880703E-3</v>
+        <v>0.15341007427146044</v>
       </c>
       <c r="C4">
-        <v>-0.80198792034182598</v>
+        <v>-0.77753851495754855</v>
       </c>
       <c r="D4">
-        <v>-0.59732597123144004</v>
+        <v>-0.60983539325758629</v>
       </c>
     </row>
   </sheetData>
